--- a/VAC Thesis 2.0/Chapter-4/table/measured_cl_mass.xlsx
+++ b/VAC Thesis 2.0/Chapter-4/table/measured_cl_mass.xlsx
@@ -407,10 +407,13 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E12"/>
+      <selection sqref="A1:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="11.734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
